--- a/data/cdbSample.xlsx
+++ b/data/cdbSample.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiho/Script/Web/chronicliner/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5C7579-B277-4A4B-AE37-67350D08A858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9202F843-0990-F842-8C34-8F8DD7FDC5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21380" yWindow="5480" windowWidth="28300" windowHeight="17440" xr2:uid="{029095FC-FFB7-A941-812C-C43E2E8D11DA}"/>
+    <workbookView xWindow="21360" yWindow="5480" windowWidth="28300" windowHeight="17440" xr2:uid="{029095FC-FFB7-A941-812C-C43E2E8D11DA}"/>
   </bookViews>
   <sheets>
     <sheet name="ハリー" sheetId="1" r:id="rId1"/>
+    <sheet name="ルーナ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
   <si>
     <t>データ型</t>
     <phoneticPr fontId="1"/>
@@ -127,6 +128,30 @@
   </si>
   <si>
     <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイブンクロー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#00ff00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hogehoge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hogehoge1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーマ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -497,7 +522,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -613,4 +638,149 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64714840-B7FE-6148-8E47-7F0275ECE53D}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>44562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>44563</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/cdbSample.xlsx
+++ b/data/cdbSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiho/Script/Web/chronicliner/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9202F843-0990-F842-8C34-8F8DD7FDC5ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F78852-167F-E344-BA5B-732FF2B3E080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="5480" windowWidth="28300" windowHeight="17440" xr2:uid="{029095FC-FFB7-A941-812C-C43E2E8D11DA}"/>
+    <workbookView xWindow="21360" yWindow="5480" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{029095FC-FFB7-A941-812C-C43E2E8D11DA}"/>
   </bookViews>
   <sheets>
     <sheet name="ハリー" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>データ型</t>
     <phoneticPr fontId="1"/>
@@ -107,10 +107,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>./hoge/hoge.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>date</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -152,6 +148,18 @@
   </si>
   <si>
     <t>テーマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>./data/img/sample2.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>./data/img/sample1.png</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -521,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95F03C1-870D-F345-BA2B-3D46E5F5B317}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -551,7 +559,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -562,7 +570,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -598,15 +606,15 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -614,10 +622,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>200</v>
@@ -625,10 +633,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>300</v>
@@ -642,10 +650,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64714840-B7FE-6148-8E47-7F0275ECE53D}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -669,12 +677,12 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -685,7 +693,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -721,15 +729,15 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -737,10 +745,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>200</v>
@@ -748,10 +756,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>300</v>
@@ -759,13 +767,13 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -773,10 +781,29 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data/cdbSample.xlsx
+++ b/data/cdbSample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiho/Script/Web/chronicliner/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F78852-167F-E344-BA5B-732FF2B3E080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8D8BFC-7FA5-9F43-89BE-459457F5E948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21360" yWindow="5480" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{029095FC-FFB7-A941-812C-C43E2E8D11DA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
   <si>
     <t>データ型</t>
     <phoneticPr fontId="1"/>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>graph</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>a</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -160,6 +156,27 @@
   </si>
   <si>
     <t>./data/img/sample1.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>chart</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>caption</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レイブンクロー生。ニュート・スキャマンダーの孫と結婚したらしい。</t>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">セイ </t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t xml:space="preserve">マゴト </t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t xml:space="preserve">ケッコンシタラシイ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -530,7 +547,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -606,15 +623,15 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -622,10 +639,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>200</v>
@@ -633,10 +650,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>300</v>
@@ -650,10 +667,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64714840-B7FE-6148-8E47-7F0275ECE53D}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -677,7 +694,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -729,15 +746,15 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
       </c>
       <c r="C8">
         <v>100</v>
@@ -745,10 +762,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>200</v>
@@ -756,10 +773,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>300</v>
@@ -767,13 +784,13 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -781,18 +798,18 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>400</v>
@@ -803,7 +820,15 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data/cdbSample.xlsx
+++ b/data/cdbSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiho/Script/Web/chronicliner/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8D8BFC-7FA5-9F43-89BE-459457F5E948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877BB8B8-304E-C248-AE4F-71EF06EC6D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21360" yWindow="5480" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{029095FC-FFB7-A941-812C-C43E2E8D11DA}"/>
+    <workbookView xWindow="3220" yWindow="11700" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{029095FC-FFB7-A941-812C-C43E2E8D11DA}"/>
   </bookViews>
   <sheets>
     <sheet name="ハリー" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
   <si>
     <t>データ型</t>
     <phoneticPr fontId="1"/>
@@ -61,48 +61,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>所属寮</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>グリフィンドール</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>時1</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">トキ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>時2</t>
-    <rPh sb="0" eb="1">
-      <t xml:space="preserve">トキ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>data</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>hoge</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hoge1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fuga</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>fuga1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>img</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -128,22 +94,6 @@
   </si>
   <si>
     <t>color</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>#00ff00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hogehoge</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hogehoge1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テーマ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -178,6 +128,104 @@
       <t xml:space="preserve">ケッコンシタラシイ </t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誕生日</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">タンジョウビ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホグワーツ入学年</t>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">ニュウガク </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">ネン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>英語表記</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">エイゴヒョウキ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Luna Lovegood</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>守護霊</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">シュゴレイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野ウサギ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ノウサギ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>髪色</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">カカミイロ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>濁ったブロンド</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">ニゴッタブロンド </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#00457E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寮の色</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">リョウ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">イロ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハリー・ポッターシリーズの主人公</t>
+    <rPh sb="13" eb="16">
+      <t xml:space="preserve">シュジンコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>牡鹿</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">オジカ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黒</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">クロ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#AA1803</t>
   </si>
 </sst>
 </file>
@@ -544,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95F03C1-870D-F345-BA2B-3D46E5F5B317}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -565,98 +613,133 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44562</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
-        <v>44563</v>
+        <v>29433</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>33482</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>100</v>
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>200</v>
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
         <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +753,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -688,10 +771,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -699,136 +779,136 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>44562</v>
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
-        <v>44563</v>
+        <v>29630</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>33848</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>100</v>
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
         <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>300</v>
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
+      <c r="C12">
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/data/cdbSample.xlsx
+++ b/data/cdbSample.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiho/Script/Web/chronicliner/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877BB8B8-304E-C248-AE4F-71EF06EC6D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FA2A6A-8E9A-8C4A-9D0B-049CAF01E0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3220" yWindow="11700" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{029095FC-FFB7-A941-812C-C43E2E8D11DA}"/>
+    <workbookView xWindow="5620" yWindow="12720" windowWidth="28300" windowHeight="17440" xr2:uid="{029095FC-FFB7-A941-812C-C43E2E8D11DA}"/>
   </bookViews>
   <sheets>
-    <sheet name="ハリー" sheetId="1" r:id="rId1"/>
-    <sheet name="ルーナ" sheetId="2" r:id="rId2"/>
+    <sheet name="TEMPLATE" sheetId="3" r:id="rId1"/>
+    <sheet name="ハリー" sheetId="1" r:id="rId2"/>
+    <sheet name="ルーナ" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
   <si>
     <t>データ型</t>
     <phoneticPr fontId="1"/>
@@ -591,6 +592,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DDC0C4-20BD-4F41-ACEB-FDB73DBE97B4}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95F03C1-870D-F345-BA2B-3D46E5F5B317}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -748,11 +807,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64714840-B7FE-6148-8E47-7F0275ECE53D}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/data/cdbSample.xlsx
+++ b/data/cdbSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiho/Script/Web/chronicliner/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FA2A6A-8E9A-8C4A-9D0B-049CAF01E0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9EEDB46-F509-6245-8C83-3E45AD944795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5620" yWindow="12720" windowWidth="28300" windowHeight="17440" xr2:uid="{029095FC-FFB7-A941-812C-C43E2E8D11DA}"/>
+    <workbookView xWindow="29700" yWindow="4320" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{029095FC-FFB7-A941-812C-C43E2E8D11DA}"/>
   </bookViews>
   <sheets>
     <sheet name="TEMPLATE" sheetId="3" r:id="rId1"/>
@@ -201,13 +201,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ハリー・ポッターシリーズの主人公</t>
-    <rPh sb="13" eb="16">
-      <t xml:space="preserve">シュジンコウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Harry Potter</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -227,6 +220,20 @@
   </si>
   <si>
     <t>#AA1803</t>
+  </si>
+  <si>
+    <t>ハリー・ポッターシリーズの主人公
+ロン、ハーマイオニーとともに激動の7年を過ごす</t>
+    <rPh sb="13" eb="16">
+      <t xml:space="preserve">シュジンコウ </t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t xml:space="preserve">ゲキドウノ </t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t xml:space="preserve">ネンヲスゴス </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -272,12 +279,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,7 +605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DDC0C4-20BD-4F41-ACEB-FDB73DBE97B4}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -653,11 +663,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E95F03C1-870D-F345-BA2B-3D46E5F5B317}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -670,12 +683,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="43" customHeight="1">
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
-        <v>29</v>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -716,7 +729,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -727,7 +740,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -738,7 +751,7 @@
         <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -749,7 +762,7 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3">
